--- a/temp/pages/be-organization.xlsx
+++ b/temp/pages/be-organization.xlsx
@@ -350,7 +350,7 @@
   </si>
   <si>
     <t>Identifier for the organization that is used to identify the organization across multiple disparate systems. 
-Typically, a NIHDI value and/or a CBE or EHP value are given. Other systems are allowed. Flows in organizations will most likely want to also include a local identifier, using its own system. A type can be added if needed.</t>
+Typically, a NIHDI value and/or a CBE or EHP value are given. Other systems are allowed. Flows in organizations will most likely want to also include a local identifier, using its own system. A type can be added if needed. When it is given, a consumer SHALL NOT ignore it.</t>
   </si>
   <si>
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
@@ -2422,7 +2422,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>36</v>
